--- a/outputs/SORs/SOR Testing_Corp Legal.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Legal.xlsx
@@ -45,7 +45,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -1351,7 +1351,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1416,7 +1418,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2345,7 +2349,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2402,7 +2408,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2655,7 +2663,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2726,7 +2734,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2797,7 +2805,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3063,7 +3071,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3134,7 +3142,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3205,7 +3213,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5359,7 +5367,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5430,7 +5438,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5501,7 +5509,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5955,7 +5963,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6026,7 +6034,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6097,7 +6105,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7392,7 +7400,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -7463,7 +7471,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -7534,7 +7542,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>

--- a/outputs/SORs/SOR Testing_Corp Legal.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Legal.xlsx
@@ -135,10 +135,10 @@
     <t xml:space="preserve">Faridabad India</t>
   </si>
   <si>
-    <t xml:space="preserve">Fort Wayne Indiana</t>
+    <t xml:space="preserve">Internal Fill Rate</t>
   </si>
   <si>
-    <t xml:space="preserve">Internal Fill Rate</t>
+    <t xml:space="preserve">Fort Wayne Indiana</t>
   </si>
   <si>
     <t xml:space="preserve">Istanbul Turkey</t>
@@ -1154,7 +1154,7 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" t="s">
@@ -1195,7 +1195,7 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" t="s">
@@ -2079,7 +2079,7 @@
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="13" t="n">
         <v>0.5</v>
@@ -2126,7 +2126,7 @@
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="13" t="n">
         <v>0.5</v>
@@ -2197,7 +2197,7 @@
         <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="13" t="n">
         <v>0.5</v>
@@ -2214,9 +2214,7 @@
         <v>0.5</v>
       </c>
       <c r="K7" s="13"/>
-      <c r="L7" s="13" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="L7" s="13"/>
       <c r="M7" s="13" t="n">
         <v>0.5</v>
       </c>
@@ -2249,6 +2247,67 @@
       </c>
       <c r="W7" s="13" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="13" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2465,7 +2524,7 @@
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" t="s">
@@ -2506,7 +2565,7 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" t="s">
@@ -2826,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="15" t="n">
         <v>0.0833333333333333</v>
@@ -2873,7 +2932,7 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" t="s">
@@ -2914,7 +2973,7 @@
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" t="s">
@@ -3234,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="16" t="n">
         <v>0.0833333333333333</v>
@@ -3281,7 +3340,7 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" t="s">
@@ -3322,7 +3381,7 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" t="s">
@@ -3689,7 +3748,7 @@
         <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="17" t="n">
         <v>0</v>
@@ -3740,7 +3799,7 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="17" t="n">
         <v>0</v>
@@ -3811,7 +3870,7 @@
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="17" t="n">
         <v>0</v>
@@ -3828,9 +3887,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="17"/>
-      <c r="L7" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="17"/>
       <c r="M7" s="17" t="n">
         <v>0</v>
       </c>
@@ -4918,7 +4975,7 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="20" t="n">
         <v>0</v>
@@ -4933,9 +4990,7 @@
       <c r="K3" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="L3" s="20"/>
       <c r="M3" s="20" t="n">
         <v>0</v>
       </c>
@@ -5530,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>0.0833333333333333</v>
@@ -5864,6 +5919,67 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -5957,7 +6073,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -6028,7 +6144,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -6099,7 +6215,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -6126,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
         <v>0.0833333333333333</v>
@@ -6170,10 +6286,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" t="s">
@@ -6211,10 +6327,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" t="s">
@@ -6581,7 +6697,7 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
@@ -6622,7 +6738,7 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" t="s">
@@ -6989,7 +7105,7 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" t="s">
@@ -7030,7 +7146,7 @@
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" t="s">
@@ -7400,7 +7516,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -7471,7 +7587,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -7542,7 +7658,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>

--- a/outputs/SORs/SOR Testing_Corp Legal.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Legal.xlsx
@@ -1351,9 +1351,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="11"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1418,9 +1416,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1869,7 +1865,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>0</v>
+        <v>0.1042</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1940,7 +1936,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>0</v>
+        <v>0.1042</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2011,7 +2007,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0</v>
+        <v>0.1042</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2035,37 +2031,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="13" t="n">
-        <v>0</v>
+        <v>0.0208416666666667</v>
       </c>
       <c r="N4" s="13" t="n">
-        <v>0</v>
+        <v>0.062525</v>
       </c>
       <c r="O4" s="13" t="n">
-        <v>0</v>
+        <v>0.0208416666666667</v>
       </c>
       <c r="P4" s="13" t="n">
-        <v>0</v>
+        <v>0.0208416666666667</v>
       </c>
       <c r="Q4" s="13" t="n">
-        <v>0</v>
+        <v>0.0208416666666667</v>
       </c>
       <c r="R4" s="13" t="n">
-        <v>0</v>
+        <v>0.062525</v>
       </c>
       <c r="S4" s="13" t="n">
-        <v>0</v>
+        <v>0.0208416666666667</v>
       </c>
       <c r="T4" s="13" t="n">
-        <v>0</v>
+        <v>0.0208416666666667</v>
       </c>
       <c r="U4" s="13" t="n">
-        <v>0</v>
+        <v>0.0208416666666667</v>
       </c>
       <c r="V4" s="13" t="n">
-        <v>0</v>
+        <v>0.062525</v>
       </c>
       <c r="W4" s="13" t="n">
-        <v>0</v>
+        <v>0.2501</v>
       </c>
     </row>
     <row r="5">
@@ -2263,7 +2259,7 @@
         <v>39</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -2408,9 +2404,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2467,9 +2461,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="14"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2722,7 +2714,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0</v>
+        <v>0.4167</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2793,7 +2785,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0</v>
+        <v>0.4167</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2864,7 +2856,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0</v>
+        <v>0.4167</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2888,37 +2880,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833416666666667</v>
       </c>
       <c r="N4" s="15" t="n">
-        <v>0.25</v>
+        <v>0.250025</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833416666666667</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833416666666667</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833416666666667</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0.25</v>
+        <v>0.250025</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833416666666667</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833416666666667</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833416666666667</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0.25</v>
+        <v>0.250025</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>1</v>
+        <v>1.0001</v>
       </c>
     </row>
     <row r="5">
@@ -3130,7 +3122,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>0</v>
+        <v>0.4167</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3201,7 +3193,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="16" t="n">
-        <v>0</v>
+        <v>0.4167</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3272,7 +3264,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="16" t="n">
-        <v>0</v>
+        <v>0.4167</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3296,37 +3288,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833416666666667</v>
       </c>
       <c r="N4" s="16" t="n">
-        <v>0.25</v>
+        <v>0.250025</v>
       </c>
       <c r="O4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833416666666667</v>
       </c>
       <c r="P4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833416666666667</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833416666666667</v>
       </c>
       <c r="R4" s="16" t="n">
-        <v>0.25</v>
+        <v>0.250025</v>
       </c>
       <c r="S4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833416666666667</v>
       </c>
       <c r="T4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833416666666667</v>
       </c>
       <c r="U4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833416666666667</v>
       </c>
       <c r="V4" s="16" t="n">
-        <v>0.25</v>
+        <v>0.250025</v>
       </c>
       <c r="W4" s="16" t="n">
-        <v>1</v>
+        <v>1.0001</v>
       </c>
     </row>
     <row r="5">
@@ -5422,7 +5414,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>0.4545</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5493,7 +5485,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>0.4545</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5564,7 +5556,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>0.4545</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5588,37 +5580,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0909</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.2727</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0909</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0909</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0909</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.2727</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0909</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0909</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0909</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.2727</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1</v>
+        <v>1.0908</v>
       </c>
     </row>
   </sheetData>
@@ -6079,7 +6071,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0</v>
+        <v>0.7143</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6150,7 +6142,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0</v>
+        <v>0.7143</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6221,7 +6213,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0</v>
+        <v>0.7143</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6245,37 +6237,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.25</v>
+        <v>0.428575</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.25</v>
+        <v>0.428575</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.25</v>
+        <v>0.428575</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>1</v>
+        <v>1.7143</v>
       </c>
     </row>
     <row r="5">
@@ -7303,7 +7295,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0</v>
+        <v>0.2174</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -7374,7 +7366,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0</v>
+        <v>0.2174</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7445,7 +7437,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0</v>
+        <v>0.2174</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7469,37 +7461,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0</v>
+        <v>0.13045</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0</v>
+        <v>0.13045</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0</v>
+        <v>0.13045</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>0</v>
+        <v>0.5218</v>
       </c>
     </row>
     <row r="5">
@@ -7516,7 +7508,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -7587,7 +7579,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -7658,7 +7650,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>

--- a/outputs/SORs/SOR Testing_Corp Legal.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Legal.xlsx
@@ -120,10 +120,10 @@
     <t xml:space="preserve">AOP</t>
   </si>
   <si>
-    <t xml:space="preserve">Commit/Forecast</t>
+    <t xml:space="preserve">Betzdorf Germany</t>
   </si>
   <si>
-    <t xml:space="preserve">Betzdorf Germany</t>
+    <t xml:space="preserve">Commit/Forecast</t>
   </si>
   <si>
     <t xml:space="preserve">Braintree Massachusetts</t>
@@ -645,9 +645,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -716,9 +714,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -772,77 +768,6 @@
       </c>
       <c r="W3" s="1" t="n">
         <v>0.23688</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -943,9 +868,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="10"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1014,9 +937,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="10"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1083,64 +1004,34 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="10" t="n">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E4" s="10"/>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10" t="n">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
       <c r="W4" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1158,98 +1049,57 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="10" t="n">
+        <v>0.5</v>
+      </c>
       <c r="O5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="10" t="n">
+        <v>0.5</v>
+      </c>
       <c r="R5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V5" s="10" t="n">
+        <v>0.5</v>
+      </c>
       <c r="W5" s="10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="10" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1566,9 +1416,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="12"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1637,9 +1485,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="12"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1692,77 +1538,6 @@
         <v>0</v>
       </c>
       <c r="W3" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1865,7 +1640,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>0.1042</v>
+        <v>0.1176</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1936,7 +1711,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>0.1042</v>
+        <v>0.1176</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2007,10 +1782,10 @@
         <v>26</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.1042</v>
+        <v>0.1176</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="13" t="n">
         <v>0</v>
@@ -2025,43 +1800,43 @@
         <v>0</v>
       </c>
       <c r="K4" s="13" t="n">
-        <v>0.1111</v>
+        <v>0.125</v>
       </c>
       <c r="L4" s="13" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="13" t="n">
-        <v>0.0208416666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="13" t="n">
-        <v>0.062525</v>
+        <v>0.125</v>
       </c>
       <c r="O4" s="13" t="n">
-        <v>0.0208416666666667</v>
+        <v>0.0196</v>
       </c>
       <c r="P4" s="13" t="n">
-        <v>0.0208416666666667</v>
+        <v>0.0196</v>
       </c>
       <c r="Q4" s="13" t="n">
-        <v>0.0208416666666667</v>
+        <v>0.0196</v>
       </c>
       <c r="R4" s="13" t="n">
-        <v>0.062525</v>
+        <v>0.0588</v>
       </c>
       <c r="S4" s="13" t="n">
-        <v>0.0208416666666667</v>
+        <v>0.0196</v>
       </c>
       <c r="T4" s="13" t="n">
-        <v>0.0208416666666667</v>
+        <v>0.0196</v>
       </c>
       <c r="U4" s="13" t="n">
-        <v>0.0208416666666667</v>
+        <v>0.0196</v>
       </c>
       <c r="V4" s="13" t="n">
-        <v>0.062525</v>
+        <v>0.0588</v>
       </c>
       <c r="W4" s="13" t="n">
-        <v>0.2501</v>
+        <v>0.2352</v>
       </c>
     </row>
     <row r="5">
@@ -2199,7 +1974,7 @@
         <v>0.5</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="13" t="n">
         <v>0.5</v>
@@ -2211,12 +1986,8 @@
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
-      <c r="M7" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N7" s="13" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
       <c r="O7" s="13" t="n">
         <v>0.5</v>
       </c>
@@ -2262,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -2714,7 +2485,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.4167</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2785,7 +2556,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.4167</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2856,61 +2627,51 @@
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.4167</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="I4" s="15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" s="15"/>
       <c r="J4" s="15" t="n">
-        <v>0.3704</v>
-      </c>
-      <c r="K4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="15" t="n">
-        <v>0.0833416666666667</v>
-      </c>
-      <c r="N4" s="15" t="n">
-        <v>0.250025</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
       <c r="O4" s="15" t="n">
-        <v>0.0833416666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0.0833416666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0.0833416666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0.250025</v>
+        <v>0.5</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0.0833416666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0.0833416666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0.0833416666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0.250025</v>
+        <v>0.5</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>1.0001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3122,7 +2883,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>0.4167</v>
+        <v>0.7692</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3193,7 +2954,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="16" t="n">
-        <v>0.4167</v>
+        <v>0.7692</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3264,10 +3025,10 @@
         <v>26</v>
       </c>
       <c r="E4" s="16" t="n">
-        <v>0.4167</v>
+        <v>0.7692</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="16" t="n">
         <v>0</v>
@@ -3276,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J4" s="16" t="n">
-        <v>0.3704</v>
+        <v>0.5882</v>
       </c>
       <c r="K4" s="16" t="n">
         <v>0</v>
@@ -3288,37 +3049,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="16" t="n">
-        <v>0.0833416666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="16" t="n">
-        <v>0.250025</v>
+        <v>0</v>
       </c>
       <c r="O4" s="16" t="n">
-        <v>0.0833416666666667</v>
+        <v>0.1282</v>
       </c>
       <c r="P4" s="16" t="n">
-        <v>0.0833416666666667</v>
+        <v>0.1282</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0.0833416666666667</v>
+        <v>0.1282</v>
       </c>
       <c r="R4" s="16" t="n">
-        <v>0.250025</v>
+        <v>0.3846</v>
       </c>
       <c r="S4" s="16" t="n">
-        <v>0.0833416666666667</v>
+        <v>0.1282</v>
       </c>
       <c r="T4" s="16" t="n">
-        <v>0.0833416666666667</v>
+        <v>0.1282</v>
       </c>
       <c r="U4" s="16" t="n">
-        <v>0.0833416666666667</v>
+        <v>0.1282</v>
       </c>
       <c r="V4" s="16" t="n">
-        <v>0.250025</v>
+        <v>0.3846</v>
       </c>
       <c r="W4" s="16" t="n">
-        <v>1.0001</v>
+        <v>1.5384</v>
       </c>
     </row>
     <row r="5">
@@ -3675,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="17" t="n">
         <v>0</v>
@@ -3868,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="17" t="n">
         <v>0</v>
@@ -3880,12 +3641,8 @@
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
-      <c r="M7" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="17" t="n">
         <v>0</v>
       </c>
@@ -4158,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="18" t="n">
         <v>0</v>
@@ -4456,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="19" t="n">
         <v>0</v>
@@ -4603,7 +4360,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -4674,7 +4431,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -4745,7 +4502,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -4754,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -4910,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -4973,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
@@ -4983,9 +4740,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="20"/>
-      <c r="M3" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="M3" s="20"/>
       <c r="N3" s="20" t="n">
         <v>0</v>
       </c>
@@ -5261,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>0</v>
@@ -5414,7 +5169,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.4545</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5485,7 +5240,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.4545</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5556,61 +5311,49 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.4545</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="4" t="n">
-        <v>0.4348</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.0909</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.2727</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
       <c r="O4" s="4" t="n">
-        <v>0.0909</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.0909</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.0909</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.2727</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.0909</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.0909</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.0909</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.2727</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.0908</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5857,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0</v>
@@ -5928,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -5938,9 +5681,7 @@
       <c r="L5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="M5" s="5"/>
       <c r="N5" s="5" t="n">
         <v>0</v>
       </c>
@@ -6071,7 +5812,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.7143</v>
+        <v>0.7692</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6142,7 +5883,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.7143</v>
+        <v>0.7692</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6213,10 +5954,10 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.7143</v>
+        <v>0.7692</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0</v>
@@ -6237,37 +5978,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0.142858333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.428575</v>
+        <v>0</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.428575</v>
+        <v>0.3846</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.428575</v>
+        <v>0.3846</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>1.7143</v>
+        <v>1.5384</v>
       </c>
     </row>
     <row r="5">
@@ -6478,9 +6219,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="7"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -6549,9 +6288,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="7"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -6618,64 +6355,34 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E4" s="7"/>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7" t="n">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
       <c r="U4" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -6693,98 +6400,57 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="U5" s="7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V5" s="7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W5" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="7" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -7032,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="8" t="n">
         <v>0</v>
@@ -7295,7 +6961,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0.2174</v>
+        <v>0.6667</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -7366,7 +7032,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0.2174</v>
+        <v>0.6667</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7437,10 +7103,10 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0.2174</v>
+        <v>0.6667</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="9" t="n">
         <v>0</v>
@@ -7455,43 +7121,43 @@
         <v>0</v>
       </c>
       <c r="K4" s="9" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L4" s="9" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0.0434833333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0.13045</v>
+        <v>1</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.0434833333333333</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.0434833333333333</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.0434833333333333</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.13045</v>
+        <v>0.33335</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.0434833333333333</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.0434833333333333</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.0434833333333333</v>
+        <v>0.111116666666667</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.13045</v>
+        <v>0.33335</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>0.5218</v>
+        <v>1.3334</v>
       </c>
     </row>
     <row r="5">
@@ -7507,9 +7173,7 @@
       <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="E5" s="9"/>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -7578,9 +7242,7 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="E6" s="9"/>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -7633,77 +7295,6 @@
         <v>0</v>
       </c>
       <c r="W6" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/outputs/SORs/SOR Testing_Corp Legal.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Legal.xlsx
@@ -1640,7 +1640,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>0.1176</v>
+        <v>0.1163</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1711,7 +1711,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>0.1176</v>
+        <v>0.1163</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1782,7 +1782,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.1176</v>
+        <v>0.1163</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -1812,31 +1812,31 @@
         <v>0.125</v>
       </c>
       <c r="O4" s="13" t="n">
-        <v>0.0196</v>
+        <v>0</v>
       </c>
       <c r="P4" s="13" t="n">
-        <v>0.0196</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="13" t="n">
-        <v>0.0196</v>
+        <v>0</v>
       </c>
       <c r="R4" s="13" t="n">
-        <v>0.0588</v>
+        <v>0</v>
       </c>
       <c r="S4" s="13" t="n">
-        <v>0.0196</v>
+        <v>0</v>
       </c>
       <c r="T4" s="13" t="n">
-        <v>0.0196</v>
+        <v>0</v>
       </c>
       <c r="U4" s="13" t="n">
-        <v>0.0196</v>
+        <v>0</v>
       </c>
       <c r="V4" s="13" t="n">
-        <v>0.0588</v>
+        <v>0</v>
       </c>
       <c r="W4" s="13" t="n">
-        <v>0.2352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1988,9 +1988,7 @@
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
-      <c r="O7" s="13" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="O7" s="13"/>
       <c r="P7" s="13" t="n">
         <v>0.5</v>
       </c>
@@ -2646,32 +2644,30 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
-      <c r="O4" s="15" t="n">
-        <v>0.166666666666667</v>
-      </c>
+      <c r="O4" s="15"/>
       <c r="P4" s="15" t="n">
-        <v>0.166666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0.166666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0.166666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0.166666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0.166666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3055,31 +3051,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="16" t="n">
-        <v>0.1282</v>
+        <v>0</v>
       </c>
       <c r="P4" s="16" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="16" t="n">
-        <v>0.3846</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="16" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="16" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="16" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="16" t="n">
-        <v>0.3846</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="16" t="n">
-        <v>1.5384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3643,9 +3639,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
-      <c r="O7" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="O7" s="17"/>
       <c r="P7" s="17" t="n">
         <v>0</v>
       </c>
@@ -4744,9 +4738,7 @@
       <c r="N3" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="O3" s="20"/>
       <c r="P3" s="20" t="n">
         <v>0</v>
       </c>
@@ -4871,7 +4863,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0</v>
+        <v>0.2564</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4942,7 +4934,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0</v>
+        <v>0.2564</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5013,7 +5005,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0</v>
+        <v>0.2564</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -5043,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="P4" s="3" t="n">
         <v>0</v>
@@ -5328,9 +5320,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="O4" s="4"/>
       <c r="P4" s="4" t="n">
         <v>0</v>
       </c>
@@ -5685,9 +5675,7 @@
       <c r="N5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="O5" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="O5" s="5"/>
       <c r="P5" s="5" t="n">
         <v>0</v>
       </c>
@@ -5984,31 +5972,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1282</v>
+        <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.3846</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3846</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>1.5384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -6765,7 +6753,9 @@
       <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -6806,7 +6796,9 @@
       <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -6860,6 +6852,61 @@
       </c>
       <c r="W6" s="8" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6961,7 +7008,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -7032,7 +7079,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7103,7 +7150,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
@@ -7133,31 +7180,31 @@
         <v>1</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.111116666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.33335</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.111116666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.33335</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>1.3334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
